--- a/lab_schinkeev/lab_bzhd.xlsx
+++ b/lab_schinkeev/lab_bzhd.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijdzeban/Documents/GitHub/python_solution/lab_schinkeev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61DF31D1-C414-2247-8316-B24D4BB1E353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8027186A-94C0-A24D-83F2-2D70ECCB0AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="17160" activeTab="1" xr2:uid="{E6456DDF-EF74-4843-A9CD-9719F3EEB2DC}"/>
+    <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="17160" activeTab="2" xr2:uid="{E6456DDF-EF74-4843-A9CD-9719F3EEB2DC}"/>
   </bookViews>
   <sheets>
     <sheet name="сопротивление человека" sheetId="1" r:id="rId1"/>
-    <sheet name="микроклимат" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId2"/>
+    <sheet name="микроклимат" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -462,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65C4333-9678-F148-A0F7-78F020795FE2}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>1250</v>
       </c>
@@ -484,7 +485,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -504,7 +505,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -524,7 +525,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -544,7 +545,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1.5</v>
       </c>
@@ -564,7 +565,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -584,7 +585,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2.5</v>
       </c>
@@ -604,7 +605,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -624,7 +625,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3.5</v>
       </c>
@@ -644,7 +645,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -664,7 +665,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4.5</v>
       </c>
@@ -684,7 +685,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -704,7 +705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5.5</v>
       </c>
@@ -724,7 +725,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -735,7 +736,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>6.5</v>
       </c>
@@ -746,7 +747,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -755,6 +756,16 @@
       </c>
       <c r="C16">
         <v>1.85</v>
+      </c>
+      <c r="M16">
+        <f>1/0.086</f>
+        <v>11.627906976744187</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <f>1/0.1287</f>
+        <v>7.7700077700077692</v>
       </c>
     </row>
   </sheetData>
@@ -764,11 +775,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F76949-FADE-8641-8D33-5254130DF442}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF2DD01-1493-634C-A88F-87718521F978}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
